--- a/数据存档/数据表/游戏数据表.xlsx
+++ b/数据存档/数据表/游戏数据表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="三选一" sheetId="9" r:id="rId1"/>
+    <sheet name="成就系统" sheetId="5" r:id="rId1"/>
     <sheet name="血量" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,15 +28,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>内容</t>
+    <t>成就名称</t>
+  </si>
+  <si>
+    <t>成就描述</t>
+  </si>
+  <si>
+    <t>成就类型</t>
+  </si>
+  <si>
+    <t>解锁条件类型</t>
+  </si>
+  <si>
+    <t>解锁条件参数</t>
+  </si>
+  <si>
+    <t>奖励类型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励物品</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>是否隐藏成就</t>
+  </si>
+  <si>
+    <t>成就图标资源路径</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成就房间中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成就房间中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐标</t>
+    </r>
+  </si>
+  <si>
+    <t>成就状态</t>
+  </si>
+  <si>
+    <t>成就排序权重</t>
+  </si>
+  <si>
+    <t>管道新手</t>
+  </si>
+  <si>
+    <r>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个管道</t>
+    </r>
+  </si>
+  <si>
+    <t>"PipeCount"</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>"Character"</t>
+  </si>
+  <si>
+    <t>"CHAR_GlideBird"</t>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+  </si>
+  <si>
+    <t>红心大师</t>
+  </si>
+  <si>
+    <t>收集500个红心</t>
+  </si>
+  <si>
+    <t>向死而生</t>
+  </si>
+  <si>
+    <t>死亡次数到达100次</t>
+  </si>
+  <si>
+    <t>百万富翁</t>
+  </si>
+  <si>
+    <t>收集500个金币</t>
   </si>
   <si>
     <t>等级</t>
@@ -55,19 +224,47 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -212,6 +409,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -549,141 +753,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,216 +1219,511 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="58.75" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:14">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1170</v>
+      </c>
+      <c r="L2" s="5">
+        <v>157</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:14">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1370</v>
+      </c>
+      <c r="L3" s="5">
+        <v>157</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:14">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1570</v>
+      </c>
+      <c r="L4" s="5">
+        <v>157</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:14">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="K5" s="5">
+        <v>1170</v>
+      </c>
+      <c r="L5" s="5">
+        <v>357</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H1048576">
+      <formula1>"点一,横二,竖二,横三,竖三,田字型,三角左,三角右,倒三角左,倒三角右"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1218,23 +1735,23 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/数据存档/数据表/游戏数据表.xlsx
+++ b/数据存档/数据表/游戏数据表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="成就系统" sheetId="5" r:id="rId1"/>
-    <sheet name="血量" sheetId="8" r:id="rId2"/>
+    <sheet name="关卡信息" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -52,13 +52,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>奖励物品</t>
     </r>
     <r>
@@ -143,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t>成就状态</t>
-  </si>
-  <si>
     <t>成就排序权重</t>
   </si>
   <si>
@@ -153,7 +143,13 @@
   </si>
   <si>
     <r>
-      <t>通过</t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过2</t>
     </r>
     <r>
       <rPr>
@@ -162,7 +158,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>10</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -175,49 +171,335 @@
     </r>
   </si>
   <si>
-    <t>"PipeCount"</t>
-  </si>
-  <si>
-    <t>"10"</t>
+    <t>统计穿过管道次数</t>
   </si>
   <si>
     <t>"Character"</t>
   </si>
   <si>
+    <t>概率出现彩虹柱子</t>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+  </si>
+  <si>
+    <t>管道精英</t>
+  </si>
+  <si>
+    <r>
+      <t>通过5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个管道</t>
+    </r>
+  </si>
+  <si>
+    <t>管道大师</t>
+  </si>
+  <si>
+    <r>
+      <t>通过10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个管道</t>
+    </r>
+  </si>
+  <si>
+    <t>红心新手</t>
+  </si>
+  <si>
+    <r>
+      <t>收集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个红心</t>
+    </r>
+  </si>
+  <si>
+    <t>统计红心收集</t>
+  </si>
+  <si>
+    <t>自定义存档点</t>
+  </si>
+  <si>
+    <t>红心精英</t>
+  </si>
+  <si>
+    <r>
+      <t>收集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个红心</t>
+    </r>
+  </si>
+  <si>
+    <t>红心大师</t>
+  </si>
+  <si>
+    <r>
+      <t>收集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个红心</t>
+    </r>
+  </si>
+  <si>
+    <t>十万富翁</t>
+  </si>
+  <si>
+    <t>收集20个金币</t>
+  </si>
+  <si>
+    <t>统计金币总数</t>
+  </si>
+  <si>
     <t>"CHAR_GlideBird"</t>
   </si>
   <si>
-    <t>res://icon.svg</t>
-  </si>
-  <si>
-    <t>红心大师</t>
-  </si>
-  <si>
-    <t>收集500个红心</t>
+    <t>百万富翁</t>
+  </si>
+  <si>
+    <t>收集50个金币</t>
+  </si>
+  <si>
+    <t>千万富翁</t>
+  </si>
+  <si>
+    <t>收集100个金币</t>
+  </si>
+  <si>
+    <t>死而无憾</t>
+  </si>
+  <si>
+    <t>死亡次数到达20次</t>
+  </si>
+  <si>
+    <t>统计死亡次数</t>
+  </si>
+  <si>
+    <t>初始护盾</t>
   </si>
   <si>
     <t>向死而生</t>
   </si>
   <si>
+    <t>死亡次数到达50次</t>
+  </si>
+  <si>
+    <t>死神在世</t>
+  </si>
+  <si>
     <t>死亡次数到达100次</t>
   </si>
   <si>
-    <t>百万富翁</t>
-  </si>
-  <si>
-    <t>收集500个金币</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>攻击</t>
+    <t>护盾升级</t>
+  </si>
+  <si>
+    <t>初级飞行员</t>
+  </si>
+  <si>
+    <t>战胜第三关</t>
+  </si>
+  <si>
+    <t>统计最高通关</t>
+  </si>
+  <si>
+    <t>限时奖励翻倍</t>
+  </si>
+  <si>
+    <t>王牌飞行员</t>
+  </si>
+  <si>
+    <t>战胜第六关</t>
+  </si>
+  <si>
+    <t>飞行员之神</t>
+  </si>
+  <si>
+    <t>战胜第九关</t>
+  </si>
+  <si>
+    <t>完美闪避</t>
+  </si>
+  <si>
+    <t>无伤通过第10关</t>
+  </si>
+  <si>
+    <t>关卡名称</t>
+  </si>
+  <si>
+    <t>预计时长</t>
+  </si>
+  <si>
+    <t>关卡主题</t>
+  </si>
+  <si>
+    <t>柱子数量</t>
+  </si>
+  <si>
+    <t>休息区位置</t>
+  </si>
+  <si>
+    <t>限时奖励出现时间</t>
+  </si>
+  <si>
+    <t>背景长度</t>
+  </si>
+  <si>
+    <t>柱子种子</t>
+  </si>
+  <si>
+    <t>柱子颜色</t>
+  </si>
+  <si>
+    <t>第一关</t>
+  </si>
+  <si>
+    <t>森林主题</t>
+  </si>
+  <si>
+    <t>ff0000</t>
+  </si>
+  <si>
+    <t>第二关</t>
+  </si>
+  <si>
+    <t>ffffff</t>
+  </si>
+  <si>
+    <t>第三关</t>
+  </si>
+  <si>
+    <t>第四关</t>
+  </si>
+  <si>
+    <t>第五关</t>
+  </si>
+  <si>
+    <t>第六关</t>
+  </si>
+  <si>
+    <t>工厂主题</t>
+  </si>
+  <si>
+    <t>第七关</t>
+  </si>
+  <si>
+    <t>第八关</t>
+  </si>
+  <si>
+    <t>第九关</t>
+  </si>
+  <si>
+    <t>第十关</t>
+  </si>
+  <si>
+    <t>第十一关</t>
+  </si>
+  <si>
+    <t>太空主题</t>
+  </si>
+  <si>
+    <t>第十二关</t>
+  </si>
+  <si>
+    <t>第十三关</t>
+  </si>
+  <si>
+    <t>第十四关</t>
+  </si>
+  <si>
+    <t>第十五关</t>
+  </si>
+  <si>
+    <t>第十六关</t>
+  </si>
+  <si>
+    <t>第十七关</t>
+  </si>
+  <si>
+    <t>第十八关</t>
+  </si>
+  <si>
+    <t>第十九关</t>
+  </si>
+  <si>
+    <t>第二十关</t>
   </si>
 </sst>
 </file>
@@ -257,13 +539,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
-      <name val="宋体"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -883,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,19 +1175,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1230,7 +1515,7 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
@@ -1238,489 +1523,1024 @@
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+    </row>
+    <row r="2" ht="17.25" spans="1:13">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:14">
-      <c r="A2" s="4">
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6">
+        <v>94</v>
+      </c>
+      <c r="L2" s="6">
+        <v>164</v>
+      </c>
+      <c r="M2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:13">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6">
+        <v>94</v>
+      </c>
+      <c r="L3" s="6">
+        <v>380</v>
+      </c>
+      <c r="M3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:13">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6">
+        <v>94</v>
+      </c>
+      <c r="L4" s="6">
+        <v>591</v>
+      </c>
+      <c r="M4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:13">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6">
+        <v>313</v>
+      </c>
+      <c r="L5" s="6">
+        <v>164</v>
+      </c>
+      <c r="M5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:13">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="6">
+        <v>313</v>
+      </c>
+      <c r="L6" s="6">
+        <v>380</v>
+      </c>
+      <c r="M6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:13">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="6">
+        <v>313</v>
+      </c>
+      <c r="L7" s="6">
+        <v>591</v>
+      </c>
+      <c r="M7" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:13">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="6">
+        <v>537</v>
+      </c>
+      <c r="L8" s="6">
+        <v>164</v>
+      </c>
+      <c r="M8" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:13">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="6">
+        <v>537</v>
+      </c>
+      <c r="L9" s="6">
+        <v>380</v>
+      </c>
+      <c r="M9" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:13">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="6">
+        <v>537</v>
+      </c>
+      <c r="L10" s="6">
+        <v>591</v>
+      </c>
+      <c r="M10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:13">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="6">
+        <v>756</v>
+      </c>
+      <c r="L11" s="6">
+        <v>164</v>
+      </c>
+      <c r="M11" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:13">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="6">
+        <v>756</v>
+      </c>
+      <c r="L12" s="6">
+        <v>380</v>
+      </c>
+      <c r="M12" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:13">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="6">
+        <v>756</v>
+      </c>
+      <c r="L13" s="6">
+        <v>591</v>
+      </c>
+      <c r="M13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:13">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="6">
+        <v>972</v>
+      </c>
+      <c r="L14" s="6">
+        <v>164</v>
+      </c>
+      <c r="M14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:13">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="6">
+        <v>972</v>
+      </c>
+      <c r="L15" s="6">
+        <v>380</v>
+      </c>
+      <c r="M15" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:13">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="K16" s="6">
+        <v>972</v>
+      </c>
+      <c r="L16" s="6">
+        <v>591</v>
+      </c>
+      <c r="M16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:13">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1170</v>
-      </c>
-      <c r="L2" s="5">
-        <v>157</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1202</v>
+      </c>
+      <c r="L17" s="6">
+        <v>164</v>
+      </c>
+      <c r="M17" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:14">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1370</v>
-      </c>
-      <c r="L3" s="5">
-        <v>157</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:14">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1570</v>
-      </c>
-      <c r="L4" s="5">
-        <v>157</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:14">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1170</v>
-      </c>
-      <c r="L5" s="5">
-        <v>357</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:13">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:13">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H11"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H33 H22:H23 H27:H29 H37:H1048576">
       <formula1>"点一,横二,竖二,横三,竖三,田字型,三角左,三角右,倒三角左,倒三角右"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1732,298 +2552,749 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3">
+        <f>ROUNDUP(C2/2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="F2" s="3">
+        <f>ROUNDUP(E2/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <f>ROUNDUP(C2/3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>12927</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E21" si="0">ROUNDUP(C3/2,0)</f>
+        <v>38</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F21" si="1">ROUNDUP(E3/2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G21" si="2">ROUNDUP(C3/3,0)</f>
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>15827</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19451</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3">
+        <v>105</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H5" s="3">
+        <v>22940</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>100+A2*10</f>
-        <v>110</v>
-      </c>
-      <c r="C2">
-        <f>40+A2*2</f>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24163</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3">
+        <v>128</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="H7" s="3">
+        <v>27259</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3">
+        <v>135</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="H8" s="3">
+        <v>28059</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3">
+        <v>139</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="H9" s="3">
+        <v>29086</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3">
+        <v>143</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30974</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3">
+        <v>150</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30974</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3">
+        <v>158</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="H12" s="3">
+        <v>31427</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3">
+        <v>162</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="H13" s="3">
+        <v>33904</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3">
+        <v>165</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D2">
-        <f>A2*0.5</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B17" si="0">100+A3*10</f>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="H14" s="3">
+        <v>33904</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3">
+        <v>173</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="H15" s="3">
+        <v>35626</v>
+      </c>
+      <c r="I15" s="3">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3">
+        <v>180</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H16" s="3">
+        <v>36034</v>
+      </c>
+      <c r="I16" s="3">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3">
+        <v>195</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H17" s="3">
+        <v>41063</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3">
+        <v>210</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43464</v>
+      </c>
+      <c r="I18" s="3">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3">
+        <v>240</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C17" si="1">40+A3*2</f>
-        <v>44</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D17" si="2">A3*0.5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H19" s="3">
+        <v>46016</v>
+      </c>
+      <c r="I19" s="3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3">
+        <v>270</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="C4">
+        <v>135</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D4">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="H20" s="3">
+        <v>54501</v>
+      </c>
+      <c r="I20" s="3">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3">
+        <v>300</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>56718</v>
+      </c>
+      <c r="I21" s="3">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/数据存档/数据表/游戏数据表.xlsx
+++ b/数据存档/数据表/游戏数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="成就系统" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>奖励物品</t>
     </r>
     <r>
@@ -187,6 +194,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>通过5</t>
     </r>
     <r>
@@ -213,6 +226,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>通过10</t>
     </r>
     <r>
@@ -239,6 +258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>收集</t>
     </r>
     <r>
@@ -271,6 +296,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>收集</t>
     </r>
     <r>
@@ -297,6 +328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>收集</t>
     </r>
     <r>
@@ -427,79 +464,283 @@
     <t>柱子颜色</t>
   </si>
   <si>
+    <t>背景颜色1</t>
+  </si>
+  <si>
+    <t>背景颜色2</t>
+  </si>
+  <si>
     <t>第一关</t>
   </si>
   <si>
-    <t>森林主题</t>
-  </si>
-  <si>
-    <t>ff0000</t>
+    <t>清新天空</t>
+  </si>
+  <si>
+    <t>#8CCBFF</t>
+  </si>
+  <si>
+    <t>#E6F7FF</t>
+  </si>
+  <si>
+    <t>#B3E0FF</t>
   </si>
   <si>
     <t>第二关</t>
   </si>
   <si>
-    <t>ffffff</t>
+    <t>薄荷森林</t>
+  </si>
+  <si>
+    <t>#9AFF9A</t>
+  </si>
+  <si>
+    <t>#F0FFF0</t>
+  </si>
+  <si>
+    <t>#C1FFC1</t>
   </si>
   <si>
     <t>第三关</t>
   </si>
   <si>
+    <t>黄昏沙丘</t>
+  </si>
+  <si>
+    <t>#FFCC80</t>
+  </si>
+  <si>
+    <t>#FFF5E6</t>
+  </si>
+  <si>
+    <t>#FFE0B3</t>
+  </si>
+  <si>
     <t>第四关</t>
   </si>
   <si>
+    <t>薰衣草田</t>
+  </si>
+  <si>
+    <t>#B39DDB</t>
+  </si>
+  <si>
+    <t>#F5F0FF</t>
+  </si>
+  <si>
+    <t>#D1C4E9</t>
+  </si>
+  <si>
     <t>第五关</t>
   </si>
   <si>
+    <t>樱花湖畔</t>
+  </si>
+  <si>
+    <t>#EF9A9A</t>
+  </si>
+  <si>
+    <t>#FFEBEE</t>
+  </si>
+  <si>
+    <t>#FFCDD2</t>
+  </si>
+  <si>
     <t>第六关</t>
   </si>
   <si>
-    <t>工厂主题</t>
+    <t>竹林秘境</t>
+  </si>
+  <si>
+    <t>#A5D6A7</t>
+  </si>
+  <si>
+    <t>#E8F5E9</t>
+  </si>
+  <si>
+    <t>#C8E6C9</t>
   </si>
   <si>
     <t>第七关</t>
   </si>
   <si>
+    <t>紫罗兰之夜</t>
+  </si>
+  <si>
+    <t>#CE93D8</t>
+  </si>
+  <si>
+    <t>#F3E5F5</t>
+  </si>
+  <si>
+    <t>#E1BEE7</t>
+  </si>
+  <si>
     <t>第八关</t>
   </si>
   <si>
+    <t>晨光麦田</t>
+  </si>
+  <si>
+    <t>#FFF59D</t>
+  </si>
+  <si>
+    <t>#FFFDE7</t>
+  </si>
+  <si>
+    <t>#FFF9C4</t>
+  </si>
+  <si>
     <t>第九关</t>
   </si>
   <si>
+    <t>冰川湖泊</t>
+  </si>
+  <si>
+    <t>#80CBC4</t>
+  </si>
+  <si>
+    <t>#E0F2F1</t>
+  </si>
+  <si>
+    <t>#B2DFDB</t>
+  </si>
+  <si>
     <t>第十关</t>
   </si>
   <si>
+    <t>熔岩洞穴</t>
+  </si>
+  <si>
+    <t>#FFAB91</t>
+  </si>
+  <si>
+    <t>#FBE9E7</t>
+  </si>
+  <si>
+    <t>#FFCCBC</t>
+  </si>
+  <si>
     <t>第十一关</t>
   </si>
   <si>
-    <t>太空主题</t>
+    <t>星云幻境</t>
+  </si>
+  <si>
+    <t>#EDE7F6</t>
   </si>
   <si>
     <t>第十二关</t>
   </si>
   <si>
+    <t>深海遗迹</t>
+  </si>
+  <si>
+    <t>#9FA8DA</t>
+  </si>
+  <si>
+    <t>#E8EAF6</t>
+  </si>
+  <si>
+    <t>#C5CAE9</t>
+  </si>
+  <si>
     <t>第十三关</t>
   </si>
   <si>
+    <t>苔原绿洲</t>
+  </si>
+  <si>
+    <t>#AED581</t>
+  </si>
+  <si>
+    <t>#F1F8E9</t>
+  </si>
+  <si>
+    <t>#DCEDC8</t>
+  </si>
+  <si>
     <t>第十四关</t>
   </si>
   <si>
+    <t>沙漠烈日</t>
+  </si>
+  <si>
+    <t>#FFD54F</t>
+  </si>
+  <si>
+    <t>#FFECB3</t>
+  </si>
+  <si>
+    <t>#FFE082</t>
+  </si>
+  <si>
     <t>第十五关</t>
   </si>
   <si>
+    <t>极光冰原</t>
+  </si>
+  <si>
+    <t>#80DEEA</t>
+  </si>
+  <si>
+    <t>#E0F7FA</t>
+  </si>
+  <si>
+    <t>#B2EBF2</t>
+  </si>
+  <si>
     <t>第十六关</t>
   </si>
   <si>
+    <t>蔷薇花园</t>
+  </si>
+  <si>
+    <t>#F48FB1</t>
+  </si>
+  <si>
+    <t>#FCE4EC</t>
+  </si>
+  <si>
+    <t>#F8BBD0</t>
+  </si>
+  <si>
     <t>第十七关</t>
   </si>
   <si>
+    <t>翡翠峡谷</t>
+  </si>
+  <si>
     <t>第十八关</t>
   </si>
   <si>
+    <t>秋日枫林</t>
+  </si>
+  <si>
+    <t>#FFF3E0</t>
+  </si>
+  <si>
+    <t>#FFE0B2</t>
+  </si>
+  <si>
     <t>第十九关</t>
   </si>
   <si>
+    <t>钢铁都市</t>
+  </si>
+  <si>
+    <t>#B0BEC5</t>
+  </si>
+  <si>
+    <t>#ECEFF1</t>
+  </si>
+  <si>
+    <t>#CFD8DC</t>
+  </si>
+  <si>
     <t>第二十关</t>
+  </si>
+  <si>
+    <t>最终幻境</t>
   </si>
 </sst>
 </file>
@@ -530,6 +771,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF404040"/>
@@ -540,12 +787,6 @@
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1165,7 +1406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,16 +1422,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,7 +1750,7 @@
   <sheetPr/>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1530,40 +1774,40 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1571,40 +1815,40 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>94</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <v>164</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1612,40 +1856,40 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>50</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="8">
         <v>94</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="8">
         <v>380</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1653,40 +1897,40 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>100</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>94</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="8">
         <v>591</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1694,40 +1938,40 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>313</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="8">
         <v>164</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1735,40 +1979,40 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>313</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>380</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1776,40 +2020,40 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>100</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>313</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>591</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1826,31 +2070,31 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>20</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>537</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>164</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1867,31 +2111,31 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>50</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="8">
         <v>537</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="8">
         <v>380</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1908,31 +2152,31 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>100</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <v>537</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="8">
         <v>591</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1949,31 +2193,31 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>20</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>756</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="8">
         <v>164</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1990,31 +2234,31 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>50</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="8">
         <v>756</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <v>380</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2031,31 +2275,31 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>100</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="8">
         <v>756</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="8">
         <v>591</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2072,31 +2316,31 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="8">
         <v>972</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="8">
         <v>164</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2104,7 +2348,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2113,31 +2357,31 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="8">
         <v>972</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="8">
         <v>380</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2145,7 +2389,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2154,31 +2398,31 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>9</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="8">
         <v>972</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="8">
         <v>591</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2195,348 +2439,348 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>10</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="8">
         <v>1202</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="8">
         <v>164</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" ht="17.25" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" ht="17.25" spans="1:13">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2552,20 +2796,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="11" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2596,19 +2842,25 @@
       <c r="J1" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:12">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3">
         <v>60</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>68</v>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="3">
         <f>ROUNDUP(C2/2,0)</f>
@@ -2629,21 +2881,27 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:12">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3">
         <v>75</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>68</v>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E21" si="0">ROUNDUP(C3/2,0)</f>
@@ -2664,21 +2922,27 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:12">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
         <v>90</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>68</v>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
@@ -2699,21 +2963,27 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:12">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>105</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
+      <c r="D5" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
@@ -2734,21 +3004,27 @@
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:12">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3">
         <v>120</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>68</v>
+      <c r="D6" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
@@ -2769,21 +3045,27 @@
         <v>5</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:12">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3">
         <v>128</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>76</v>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
@@ -2804,21 +3086,27 @@
         <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:12">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3">
         <v>135</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
@@ -2839,21 +3127,27 @@
         <v>7</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:12">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3">
         <v>139</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>76</v>
+      <c r="D9" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
@@ -2874,21 +3168,27 @@
         <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:12">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3">
         <v>143</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>76</v>
+      <c r="D10" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
@@ -2909,21 +3209,27 @@
         <v>9</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>111</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:12">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3">
         <v>150</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
+      <c r="D11" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
@@ -2944,21 +3250,27 @@
         <v>10</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>116</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:12">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3">
         <v>158</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>82</v>
+      <c r="D12" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
@@ -2979,21 +3291,27 @@
         <v>11</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:12">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3">
         <v>162</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
+      <c r="D13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
@@ -3014,21 +3332,27 @@
         <v>12</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:12">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3">
         <v>165</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
+      <c r="D14" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
@@ -3049,21 +3373,27 @@
         <v>13</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>129</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:12">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3">
         <v>173</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>82</v>
+      <c r="D15" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
@@ -3084,21 +3414,27 @@
         <v>14</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:12">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3">
         <v>180</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
+      <c r="D16" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
@@ -3119,21 +3455,27 @@
         <v>15</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:12">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3">
         <v>195</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
+      <c r="D17" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
@@ -3154,21 +3496,27 @@
         <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:12">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3">
         <v>210</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
+      <c r="D18" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
@@ -3189,21 +3537,27 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:12">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3">
         <v>240</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>68</v>
+      <c r="D19" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
@@ -3224,21 +3578,27 @@
         <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:12">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3">
         <v>270</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
+      <c r="D20" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
@@ -3259,21 +3619,27 @@
         <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:12">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3">
         <v>300</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
+      <c r="D21" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
@@ -3294,7 +3660,13 @@
         <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/数据存档/数据表/游戏数据表.xlsx
+++ b/数据存档/数据表/游戏数据表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="成就系统" sheetId="5" r:id="rId1"/>
     <sheet name="关卡信息" sheetId="8" r:id="rId2"/>
+    <sheet name="对话数据" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -437,6 +438,29 @@
     <t>无伤通过第10关</t>
   </si>
   <si>
+    <t>一直向右</t>
+  </si>
+  <si>
+    <t>大鸟部落中飞到尽头</t>
+  </si>
+  <si>
+    <t>穿过鬼打墙</t>
+  </si>
+  <si>
+    <r>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*10</t>
+    </r>
+  </si>
+  <si>
     <t>关卡名称</t>
   </si>
   <si>
@@ -741,6 +765,42 @@
   </si>
   <si>
     <t>最终幻境</t>
+  </si>
+  <si>
+    <t>告示牌1</t>
+  </si>
+  <si>
+    <t>告示牌2</t>
+  </si>
+  <si>
+    <t>大鸟部落欢迎你</t>
+  </si>
+  <si>
+    <t>休息点可以提前撤退</t>
+  </si>
+  <si>
+    <t>这里是大鸟们的天堂</t>
+  </si>
+  <si>
+    <t>带走一部分收益</t>
+  </si>
+  <si>
+    <t>豆腐是这里的主要食物</t>
+  </si>
+  <si>
+    <t>如果继续前进困难提升</t>
+  </si>
+  <si>
+    <t>快来一起孵蛋吧</t>
+  </si>
+  <si>
+    <t>收益翻倍</t>
+  </si>
+  <si>
+    <t>嘎嘎</t>
+  </si>
+  <si>
+    <t>但是失败将会损失大部分收益</t>
   </si>
 </sst>
 </file>
@@ -1406,35 +1466,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1750,8 +1804,8 @@
   <sheetPr/>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1770,8 +1824,8 @@
     <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="17.25" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1812,7 +1866,7 @@
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1821,39 +1875,39 @@
       <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <v>94</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="5">
         <v>164</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:13">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1862,39 +1916,39 @@
       <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>50</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>94</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>380</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:13">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1903,39 +1957,39 @@
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>100</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>94</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>591</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:13">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1944,39 +1998,39 @@
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <v>313</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>164</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:13">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1985,802 +2039,828 @@
       <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>50</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="5">
         <v>313</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="5">
         <v>380</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:13">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>313</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="5">
         <v>591</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:13">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="5">
         <v>537</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="5">
         <v>164</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:13">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>50</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="5">
         <v>537</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="5">
         <v>380</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:13">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>100</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="5">
         <v>537</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="5">
         <v>591</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:13">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="5">
         <v>756</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="5">
         <v>164</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:13">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>50</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="5">
         <v>756</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="5">
         <v>380</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:13">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>100</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="5">
         <v>756</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="5">
         <v>591</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:13">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="5">
         <v>972</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="5">
         <v>164</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:13">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>6</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="5">
         <v>972</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="5">
         <v>380</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:13">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>9</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="5">
         <v>972</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="5">
         <v>591</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:13">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>10</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="5">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="5">
         <v>1202</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="5">
         <v>164</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+    <row r="18" ht="17.25" spans="1:13">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1202</v>
+      </c>
+      <c r="L18" s="5">
+        <v>380</v>
+      </c>
+      <c r="M18" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" ht="17.25" spans="1:13">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" ht="17.25" spans="1:13">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2798,8 +2878,8 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2811,863 +2891,957 @@
     <col min="11" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:12">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="3">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1">
         <f>ROUNDUP(C2/2,0)</f>
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <f>ROUNDUP(E2/2,0)</f>
         <v>15</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <f>ROUNDUP(C2/3,0)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>12927</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>73</v>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:12">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1">
         <v>75</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E21" si="0">ROUNDUP(C3/2,0)</f>
         <v>38</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F21" si="1">ROUNDUP(E3/2,0)</f>
         <v>19</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G21" si="2">ROUNDUP(C3/3,0)</f>
         <v>25</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>15827</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>78</v>
+      <c r="J3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:12">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1">
         <v>90</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>19451</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>83</v>
+      <c r="J4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:12">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1">
         <v>105</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>22940</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>88</v>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:12">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
         <v>120</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>24163</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>93</v>
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:12">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1">
         <v>128</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>27259</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>98</v>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:12">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1">
         <v>135</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>28059</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>103</v>
+      <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:12">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1">
         <v>139</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>29086</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>8</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>108</v>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:12">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1">
         <v>143</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>30974</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>113</v>
+      <c r="J10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:12">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="1">
         <v>150</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>30974</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>118</v>
+      <c r="J11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:12">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
         <v>158</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>31427</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>88</v>
+      <c r="J12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:12">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1">
         <v>162</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>33904</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>12</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>126</v>
+      <c r="J13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:12">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="1">
         <v>165</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>33904</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>13</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>131</v>
+      <c r="J14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:12">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1">
         <v>173</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>35626</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>14</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>136</v>
+      <c r="J15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:12">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1">
         <v>180</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>36034</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>15</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>141</v>
+      <c r="J16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:12">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="1">
         <v>195</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>41063</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>16</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>146</v>
+      <c r="J17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:12">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1">
         <v>210</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>43464</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>17</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>98</v>
+      <c r="J18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:12">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1">
         <v>240</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>46016</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>18</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>152</v>
+      <c r="J19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:12">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="1">
         <v>270</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>54501</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>19</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>157</v>
+      <c r="J20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:12">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="1">
         <v>300</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>56718</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>20</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="J21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
